--- a/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2628006236281948</v>
+        <v>0.2533069527421188</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2628006236281948, 'ngram_match_score': 0.1462234729907618, 'weighted_ngram_match_score': 0.16244737595239706, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.20253164556962025}</t>
+          <t>{'codebleu': 0.25330695274211884, 'ngram_match_score': 0.1462234729907618, 'weighted_ngram_match_score': 0.16244737595239706, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.16455696202531644}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
